--- a/excel_with_subclasses/without_zeros/economic_region_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/economic_region_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q6027980</t>
@@ -470,9 +470,6 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -484,9 +481,6 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -498,9 +492,6 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -512,9 +503,6 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -526,9 +514,6 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -540,9 +525,6 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -554,9 +536,6 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -567,9 +546,6 @@
       </c>
       <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
